--- a/work.xlsx
+++ b/work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darrekt/Documents/Imperial/Year4/Spring/SPMLF/CW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04537FE0-A0C6-4A41-9BA0-068685855082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD47B610-61BA-2F43-B456-811125048D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{077C8DCD-434D-49C5-BABB-688953C313BD}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Section 1</t>
   </si>
@@ -258,6 +258,9 @@
   <si>
     <t>Quality?</t>
   </si>
+  <si>
+    <t>CENTER EQUATIONS</t>
+  </si>
 </sst>
 </file>
 
@@ -362,7 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
@@ -375,6 +378,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -438,83 +442,83 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="L3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="L3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,15 +542,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,19 +558,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,51 +578,51 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="T6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="T6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,11 +646,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="H16" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="H16" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4644,10 +4648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B120F1-AFA6-4810-B2B8-E47BBE5B81B2}">
-  <dimension ref="A1:X24"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4699,11 +4703,11 @@
       </c>
       <c r="C2">
         <f>SUM(C3,C7,C12,C14,C19)</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:D20" si="0">C2/B2</f>
-        <v>0</v>
+        <v>0.55068493150684927</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
@@ -4712,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
@@ -4721,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>44</v>
@@ -4739,7 +4743,7 @@
         <v>5</v>
       </c>
       <c r="T2" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>60</v>
@@ -4761,11 +4765,11 @@
       </c>
       <c r="C3">
         <f>SUM(C4:C6)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -4774,7 +4778,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
@@ -4783,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>45</v>
@@ -4801,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="T3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>61</v>
@@ -4823,11 +4827,11 @@
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4">SUM(G2:G7*H2:H7)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4">
         <f>C4/B4</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -4836,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
@@ -4863,7 +4867,7 @@
         <v>9</v>
       </c>
       <c r="T4" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>62</v>
@@ -4885,11 +4889,11 @@
       </c>
       <c r="C5" cm="1">
         <f t="array" ref="C5">SUM(G9:G12*H9:H12)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
@@ -4907,7 +4911,7 @@
         <v>3</v>
       </c>
       <c r="T5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>63</v>
@@ -4929,11 +4933,11 @@
       </c>
       <c r="C6" cm="1">
         <f t="array" ref="C6">SUM(G14:G18*H14:H18)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
@@ -4942,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
@@ -4951,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>51</v>
@@ -4960,7 +4964,7 @@
         <v>5</v>
       </c>
       <c r="T6" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>64</v>
@@ -4982,11 +4986,11 @@
       </c>
       <c r="C7">
         <f>SUM(C8:C11)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -4995,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
@@ -5004,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5017,11 +5021,11 @@
       </c>
       <c r="C8" cm="1">
         <f t="array" ref="C8">SUM(K2:K4*L2:L4)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
@@ -5030,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>52</v>
@@ -5039,7 +5043,7 @@
         <v>15</v>
       </c>
       <c r="T8" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5052,11 +5056,11 @@
       </c>
       <c r="C9" cm="1">
         <f t="array" ref="C9">SUM(K6:K9*L6:L9)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -5065,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
@@ -5074,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>53</v>
@@ -5083,7 +5087,7 @@
         <v>5</v>
       </c>
       <c r="T9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5096,11 +5100,11 @@
       </c>
       <c r="C10" cm="1">
         <f t="array" ref="C10">SUM(K11:K13*L11:L13)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -5109,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>54</v>
@@ -5118,7 +5122,7 @@
         <v>5</v>
       </c>
       <c r="T10" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5131,11 +5135,11 @@
       </c>
       <c r="C11" cm="1">
         <f t="array" ref="C11">SUM(K15:K23*L15:L23)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -5153,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5188,7 +5192,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>55</v>
@@ -5197,7 +5201,7 @@
         <v>10</v>
       </c>
       <c r="T12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5223,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>56</v>
@@ -5232,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="T13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5245,11 +5249,11 @@
       </c>
       <c r="C14">
         <f>SUM(C15:C18)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>21</v>
@@ -5258,7 +5262,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>57</v>
@@ -5267,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="T14" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5280,11 +5284,11 @@
       </c>
       <c r="C15" cm="1">
         <f t="array" ref="C15">SUM(S2:S6*T2:T6)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>18</v>
@@ -5293,7 +5297,7 @@
         <v>5</v>
       </c>
       <c r="H15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>35</v>
@@ -5302,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5315,11 +5319,11 @@
       </c>
       <c r="C16" cm="1">
         <f t="array" ref="C16">SUM(S8:S10*T8:T10)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>22</v>
@@ -5328,7 +5332,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>36</v>
@@ -5337,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>58</v>
@@ -5346,7 +5350,7 @@
         <v>10</v>
       </c>
       <c r="T16" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5359,11 +5363,11 @@
       </c>
       <c r="C17" cm="1">
         <f t="array" ref="C17">SUM(S12:S14*T12:T14)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>23</v>
@@ -5381,7 +5385,7 @@
         <v>3</v>
       </c>
       <c r="L17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>59</v>
@@ -5390,7 +5394,7 @@
         <v>15</v>
       </c>
       <c r="T17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5403,11 +5407,11 @@
       </c>
       <c r="C18" cm="1">
         <f t="array" ref="C18">SUM(S16:S17*T16:T17)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -5425,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="L18" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="3"/>
     </row>
@@ -5452,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5478,7 +5482,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5489,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5500,7 +5504,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5517,7 +5521,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
@@ -5526,7 +5530,12 @@
       </c>
       <c r="B24" s="4">
         <f>A24*D2</f>
-        <v>0</v>
+        <v>0.55068493150684927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J25" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
